--- a/Sprint_1/repos/results/results.xlsx
+++ b/Sprint_1/repos/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ML_exercises\CS7CS5-202122-Dissertation\Sprint_1\repos\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C162DA-D08E-43CC-8E95-D114F3500E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE41D9A-8519-4ED3-9487-0EDB1A99F0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{52F7B8C6-ED79-4422-B4E2-3C12B17FB23E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Aggregated" sheetId="1" r:id="rId1"/>
     <sheet name="Per-Month" sheetId="2" r:id="rId2"/>
     <sheet name="Per-Author" sheetId="3" r:id="rId3"/>
+    <sheet name="Terms" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="223">
   <si>
     <t>Commit Count</t>
   </si>
@@ -653,19 +654,82 @@
   <si>
     <t>Month 80
 (post)</t>
+  </si>
+  <si>
+    <t>Change in Number of Authors (Eq)</t>
+  </si>
+  <si>
+    <t>Change in Number of Authors (80)</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Direction and percentage of change in the mean value of a marker per month.</t>
+  </si>
+  <si>
+    <t>Direction and percentage of change in the mean value of a marker per auhtor.</t>
+  </si>
+  <si>
+    <t>x percentage of months required to produce 80% of the marker's output pre-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of months required to produce 80% of the marker's output post-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of months required to produce as much of themarker's output as ~x months post-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of months required to produce as much of the marker's output as ~x months pre-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of authors that produced as much of the marker's output as ~x authors pre-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of authors that produced as much of the marker's output as ~x authors post-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of authors that produced 80% of the marker's output pre-covid.</t>
+  </si>
+  <si>
+    <t>x percentage of authors that produced 80% of the marker's output post-covid.</t>
+  </si>
+  <si>
+    <t>( Author Eq (post) - Author Eq (pre) ) / Author Eq (pre) * 100</t>
+  </si>
+  <si>
+    <t>( Author 80 (post) - Author 80 (pre) ) / Author 80 (pre) * 100</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Rank of Repository according to star count.</t>
+  </si>
+  <si>
+    <t>Producitvity metric.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -855,9 +919,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,31 +928,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1193,18 +1288,98 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1228,6 +1403,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1246,6 +1427,172 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1255,19 +1602,23 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1303,48 +1654,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1359,282 +1668,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1801,6 +1834,412 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1974,41 +2413,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6209785-36FB-4CF1-B24F-0B329C83AC51}" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
-  <autoFilter ref="A1:K7" xr:uid="{F05D01BF-1769-4E8D-B522-082AA5FC67E7}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D72834E5-103D-4206-8997-69BAD82CC03D}" name="Marker" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{D51998D6-F1C7-4D2A-897B-84D13E2BC096}" name="Trend in Mean_x000a_(Month)" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{5A2BCFEA-5BD7-43DF-92F5-8D127ABF0B46}" name="Month Eq_x000a_(pre)" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{F40D46C7-1E91-4F67-AE62-331EE8DC9155}" name="Month Eq_x000a_(post)" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{871266C8-6972-40FE-B7C5-128CDF5AED4D}" name="Month 80_x000a_(pre)" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{4290E534-3BC2-4E41-ABB9-F90A3F7D816E}" name="Month 80_x000a_(post)" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{68844F7C-ABC2-4A24-93EE-F3886D0E7D2B}" name="Trend in Mean_x000a_(Author)" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{306BA5BF-A2AA-42AA-9B93-B1C3C3A54924}" name="Author Eq (pre)" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{8852089A-918C-42CA-8C9E-6CBB18448FE0}" name="Author Eq (post)" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{E0916161-815C-48D2-81EE-462BFC01F9B4}" name="Author 80 (pre)" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{E4B3DE2F-FA3C-4CF4-8F78-A3FB370D550D}" name="Author 80 (post)" dataDxfId="32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6209785-36FB-4CF1-B24F-0B329C83AC51}" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+  <autoFilter ref="A1:F7" xr:uid="{F05D01BF-1769-4E8D-B522-082AA5FC67E7}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D72834E5-103D-4206-8997-69BAD82CC03D}" name="Marker" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{D51998D6-F1C7-4D2A-897B-84D13E2BC096}" name="Trend in Mean_x000a_(Month)" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{5A2BCFEA-5BD7-43DF-92F5-8D127ABF0B46}" name="Month Eq_x000a_(pre)" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{F40D46C7-1E91-4F67-AE62-331EE8DC9155}" name="Month Eq_x000a_(post)" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{871266C8-6972-40FE-B7C5-128CDF5AED4D}" name="Month 80_x000a_(pre)" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{4290E534-3BC2-4E41-ABB9-F90A3F7D816E}" name="Month 80_x000a_(post)" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C0C797F-5A79-4F40-B092-BB00BE5C2C7F}" name="Month_Table" displayName="Month_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F628FE20-01F5-4154-A7A0-9B2E4C6E41D3}" name="Agg_Author_Table" displayName="Agg_Author_Table" ref="A9:H15" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+  <autoFilter ref="A9:H15" xr:uid="{80CAEA16-7472-465E-9978-5204C5AA9AA8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6E3EF8D4-9B45-4594-BAED-87F26AC72C0E}" name="Marker" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{5A14FD65-0D51-4BE7-8664-45E8BC7136DC}" name="Trend in Mean_x000a_(Author)" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{C60806AB-1A59-4BEE-9C4C-AB59F1D328E2}" name="Author Eq (pre)" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{EF26CCEE-5518-45BE-8841-3A18CBB25973}" name="Author Eq (post)" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{A17C75CF-EF78-485B-AE75-C312831F8235}" name="Change in Number of Authors (Eq)" dataDxfId="67">
+      <calculatedColumnFormula xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{24D05A95-8DF1-4491-97F3-B243D5D7CB21}" name="Author 80 (pre)" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{93F415B4-6006-480C-8210-48A1C4D16519}" name="Author 80 (post)" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{5B31CDB8-038B-460C-AB80-65D195567B64}" name="Change in Number of Authors (80)" dataDxfId="64">
+      <calculatedColumnFormula xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C0C797F-5A79-4F40-B092-BB00BE5C2C7F}" name="Month_Table" displayName="Month_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:J121" xr:uid="{01ABD37D-F83F-4642-BFDB-B92B9C30E5A4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D01A52EA-F873-41A8-AF9B-24DCF719E4AA}" name="Repository Rank" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{339B1CCD-C64A-45BD-97C4-539A8C29A379}" name="Repository Name" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{DF40CB11-7EAE-4B4B-8526-1E187C34811B}" name="Marker" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{2F18F556-AB38-494E-A097-F01F0F98393D}" name="Trend in Mean" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{A67A06C9-CBF0-4737-AC70-3591231E2765}" name="Month Eq (pre)" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{4AF80F60-D4BF-4B80-886D-FA3D7B97FF7F}" name="Month Eq (post)" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{E0E50CCA-870A-4D82-8F79-4423AD68F464}" name="Change Direction_x000a_(Month Eq)" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{D01A52EA-F873-41A8-AF9B-24DCF719E4AA}" name="Repository Rank" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{339B1CCD-C64A-45BD-97C4-539A8C29A379}" name="Repository Name" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{DF40CB11-7EAE-4B4B-8526-1E187C34811B}" name="Marker" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{2F18F556-AB38-494E-A097-F01F0F98393D}" name="Trend in Mean" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{A67A06C9-CBF0-4737-AC70-3591231E2765}" name="Month Eq (pre)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{4AF80F60-D4BF-4B80-886D-FA3D7B97FF7F}" name="Month Eq (post)" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{E0E50CCA-870A-4D82-8F79-4423AD68F464}" name="Change Direction_x000a_(Month Eq)" dataDxfId="52">
       <calculatedColumnFormula>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFA93A9C-7A33-4017-9B34-5194BEA2CFB3}" name="Month 80 (pre)" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{5A3D6698-1492-42F4-9406-1B2DCCDA7B98}" name="Month 80 (post)" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{E8B4CBBA-F989-4D44-94D1-F8F9ED5AF158}" name="Change Direction_x000a_(Month 80)" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{FFA93A9C-7A33-4017-9B34-5194BEA2CFB3}" name="Month 80 (pre)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{5A3D6698-1492-42F4-9406-1B2DCCDA7B98}" name="Month 80 (post)" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{E8B4CBBA-F989-4D44-94D1-F8F9ED5AF158}" name="Change Direction_x000a_(Month 80)" dataDxfId="49">
       <calculatedColumnFormula>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2016,26 +2471,37 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4467437-2A3E-4C21-932F-B15782EE29D5}" name="Author_Table" displayName="Author_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49" totalsRowBorderDxfId="47">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4467437-2A3E-4C21-932F-B15782EE29D5}" name="Author_Table" displayName="Author_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A1:J121" xr:uid="{758EA4D9-D01C-47C1-8B25-BCA71258E4C9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3C78A6AF-5CC9-4ADB-9588-0AB44E80D9A8}" name="Repository_x000a_Rank" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{4B49AFD1-A12F-42DE-BB7E-A6178382257F}" name="Repository Name" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{B300A10E-70C1-45BD-8E60-576CD7063D52}" name="Marker" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{340F8572-4B5B-4C67-998E-C6BA34D5D977}" name="Trend in Mean" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{6AF3FF3A-19A1-4933-AB01-B6FD782A613E}" name="Author Eq (pre)" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{61FF835F-6F49-4A51-BDF2-EC9C724D2A68}" name="Author Eq (post)" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{77DB3632-DB2F-4911-80F1-A8AE918EA32D}" name="Change Direction_x000a_(Author Eq)" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{3C78A6AF-5CC9-4ADB-9588-0AB44E80D9A8}" name="Repository_x000a_Rank" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{4B49AFD1-A12F-42DE-BB7E-A6178382257F}" name="Repository Name" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{B300A10E-70C1-45BD-8E60-576CD7063D52}" name="Marker" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{340F8572-4B5B-4C67-998E-C6BA34D5D977}" name="Trend in Mean" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{6AF3FF3A-19A1-4933-AB01-B6FD782A613E}" name="Author Eq (pre)" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{61FF835F-6F49-4A51-BDF2-EC9C724D2A68}" name="Author Eq (post)" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{77DB3632-DB2F-4911-80F1-A8AE918EA32D}" name="Change Direction_x000a_(Author Eq)" dataDxfId="37">
       <calculatedColumnFormula>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CDD643B7-34BC-4233-9956-24BDF133784F}" name="Author 80 (pre)" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{9C4A93B6-3443-43B0-AAE9-C2D727D9CA1D}" name="Author 80 (post)" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{F494A487-038B-4CB8-B0E5-3BB23E4F4BEF}" name="Change Direction_x000a_(Author 80)" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{CDD643B7-34BC-4233-9956-24BDF133784F}" name="Author 80 (pre)" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{9C4A93B6-3443-43B0-AAE9-C2D727D9CA1D}" name="Author 80 (post)" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{F494A487-038B-4CB8-B0E5-3BB23E4F4BEF}" name="Change Direction_x000a_(Author 80)" dataDxfId="34">
       <calculatedColumnFormula>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12F8B1DF-2997-4FD4-B471-3115399A6E5C}" name="Table5" displayName="Table5" ref="A1:B15" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+  <autoFilter ref="A1:B15" xr:uid="{050D82F8-536D-4A38-9753-067603486D57}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F35B6690-83E7-4B46-8E7A-5C10EB645A1D}" name="Term" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{3F25AE98-D399-455C-8C4A-9E1B669EB79E}" name="Description" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2336,7 +2802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4935FDB1-B11B-4623-B830-7444A5DD9250}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2344,51 +2810,35 @@
   <cols>
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2407,23 +2857,8 @@
       <c r="F2" s="5">
         <v>80</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1</v>
-      </c>
-      <c r="I2" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="J2" s="18">
-        <v>15.7</v>
-      </c>
-      <c r="K2" s="18">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2442,23 +2877,8 @@
       <c r="F3" s="5">
         <v>75</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2477,23 +2897,8 @@
       <c r="F4" s="5">
         <v>75</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2512,23 +2917,8 @@
       <c r="F5" s="5">
         <v>75</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2547,23 +2937,8 @@
       <c r="F6" s="5">
         <v>75</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -2582,27 +2957,207 @@
       <c r="F7" s="8">
         <v>75</v>
       </c>
-      <c r="G7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="34">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="31">
+        <v>15.7</v>
+      </c>
+      <c r="G10" s="31">
+        <v>14.4</v>
+      </c>
+      <c r="H10" s="34">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</f>
+        <v>-0.22955145118733508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="H11" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</f>
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="35">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="7">
+      <c r="C15" s="29">
         <v>0.2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="D15" s="29">
         <v>0.2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="E15" s="36">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author Eq (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author Eq (pre)]/100*2411), 0)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F15" s="32">
         <v>0.3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="G15" s="32">
         <v>0.4</v>
+      </c>
+      <c r="H15" s="36">
+        <f xml:space="preserve"> (ROUND((Agg_Author_Table[Author 80 (post)]/100*2028), 0) - ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0))/ROUND((Agg_Author_Table[Author 80 (pre)]/100*2411), 0)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2647,7 +3202,7 @@
       <c r="F1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>192</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -2656,7 +3211,7 @@
       <c r="I1" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2679,7 +3234,7 @@
       <c r="F2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="19" t="str">
+      <c r="G2" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2689,7 +3244,7 @@
       <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="19" t="str">
+      <c r="J2" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2713,7 +3268,7 @@
       <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="19" t="str">
+      <c r="G3" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2723,7 +3278,7 @@
       <c r="I3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="19" t="str">
+      <c r="J3" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2747,7 +3302,7 @@
       <c r="F4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="19" t="str">
+      <c r="G4" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2757,7 +3312,7 @@
       <c r="I4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="J4" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2781,7 +3336,7 @@
       <c r="F5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="19" t="str">
+      <c r="G5" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2791,7 +3346,7 @@
       <c r="I5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2815,7 +3370,7 @@
       <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2825,7 +3380,7 @@
       <c r="I6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2849,7 +3404,7 @@
       <c r="F7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2859,7 +3414,7 @@
       <c r="I7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2883,7 +3438,7 @@
       <c r="F8" s="4">
         <v>16.7</v>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -2893,7 +3448,7 @@
       <c r="I8" s="5">
         <v>41.7</v>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -2917,7 +3472,7 @@
       <c r="F9" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2927,7 +3482,7 @@
       <c r="I9" s="4">
         <v>16.7</v>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2951,7 +3506,7 @@
       <c r="F10" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2961,7 +3516,7 @@
       <c r="I10" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J10" s="19" t="str">
+      <c r="J10" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2985,7 +3540,7 @@
       <c r="F11" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -2995,7 +3550,7 @@
       <c r="I11" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3019,7 +3574,7 @@
       <c r="F12" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3029,7 +3584,7 @@
       <c r="I12" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="J12" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3053,7 +3608,7 @@
       <c r="F13" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3063,7 +3618,7 @@
       <c r="I13" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J13" s="19" t="str">
+      <c r="J13" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3087,7 +3642,7 @@
       <c r="F14" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3097,7 +3652,7 @@
       <c r="I14" s="5">
         <v>16.7</v>
       </c>
-      <c r="J14" s="19" t="str">
+      <c r="J14" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3121,7 +3676,7 @@
       <c r="F15" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3131,7 +3686,7 @@
       <c r="I15" s="5">
         <v>25</v>
       </c>
-      <c r="J15" s="19" t="str">
+      <c r="J15" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3155,7 +3710,7 @@
       <c r="F16" s="4">
         <v>16.7</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3165,7 +3720,7 @@
       <c r="I16" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J16" s="19" t="str">
+      <c r="J16" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3189,7 +3744,7 @@
       <c r="F17" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3199,7 +3754,7 @@
       <c r="I17" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J17" s="19" t="str">
+      <c r="J17" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3223,7 +3778,7 @@
       <c r="F18" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3233,7 +3788,7 @@
       <c r="I18" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J18" s="19" t="str">
+      <c r="J18" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3257,7 +3812,7 @@
       <c r="F19" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3267,7 +3822,7 @@
       <c r="I19" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J19" s="19" t="str">
+      <c r="J19" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3291,7 +3846,7 @@
       <c r="F20" s="4">
         <v>25</v>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3301,7 +3856,7 @@
       <c r="I20" s="5">
         <v>66.7</v>
       </c>
-      <c r="J20" s="19" t="str">
+      <c r="J20" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3325,7 +3880,7 @@
       <c r="F21" s="4">
         <v>25</v>
       </c>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3335,7 +3890,7 @@
       <c r="I21" s="4">
         <v>41.7</v>
       </c>
-      <c r="J21" s="19" t="str">
+      <c r="J21" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3359,7 +3914,7 @@
       <c r="F22" s="4">
         <v>16.7</v>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3369,7 +3924,7 @@
       <c r="I22" s="4">
         <v>41.7</v>
       </c>
-      <c r="J22" s="19" t="str">
+      <c r="J22" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3393,7 +3948,7 @@
       <c r="F23" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3403,7 +3958,7 @@
       <c r="I23" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J23" s="19" t="str">
+      <c r="J23" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3427,7 +3982,7 @@
       <c r="F24" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3437,7 +3992,7 @@
       <c r="I24" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J24" s="19" t="str">
+      <c r="J24" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3461,7 +4016,7 @@
       <c r="F25" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3471,7 +4026,7 @@
       <c r="I25" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J25" s="19" t="str">
+      <c r="J25" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3495,7 +4050,7 @@
       <c r="F26" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3505,7 +4060,7 @@
       <c r="I26" s="4">
         <v>58.3</v>
       </c>
-      <c r="J26" s="19" t="str">
+      <c r="J26" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3529,7 +4084,7 @@
       <c r="F27" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3539,7 +4094,7 @@
       <c r="I27" s="4">
         <v>58.3</v>
       </c>
-      <c r="J27" s="19" t="str">
+      <c r="J27" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3563,7 +4118,7 @@
       <c r="F28" s="4">
         <v>16.7</v>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3573,7 +4128,7 @@
       <c r="I28" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="J28" s="19" t="str">
+      <c r="J28" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3597,7 +4152,7 @@
       <c r="F29" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3607,7 +4162,7 @@
       <c r="I29" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J29" s="19" t="str">
+      <c r="J29" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3631,7 +4186,7 @@
       <c r="F30" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3641,7 +4196,7 @@
       <c r="I30" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J30" s="19" t="str">
+      <c r="J30" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3665,7 +4220,7 @@
       <c r="F31" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G31" s="19" t="str">
+      <c r="G31" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3675,7 +4230,7 @@
       <c r="I31" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J31" s="19" t="str">
+      <c r="J31" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3699,7 +4254,7 @@
       <c r="F32" s="4">
         <v>25</v>
       </c>
-      <c r="G32" s="19" t="str">
+      <c r="G32" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3709,7 +4264,7 @@
       <c r="I32" s="5">
         <v>50</v>
       </c>
-      <c r="J32" s="19" t="str">
+      <c r="J32" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3733,7 +4288,7 @@
       <c r="F33" s="4">
         <v>16.7</v>
       </c>
-      <c r="G33" s="19" t="str">
+      <c r="G33" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3743,7 +4298,7 @@
       <c r="I33" s="5">
         <v>25</v>
       </c>
-      <c r="J33" s="19" t="str">
+      <c r="J33" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -3767,7 +4322,7 @@
       <c r="F34" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G34" s="19" t="str">
+      <c r="G34" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3777,7 +4332,7 @@
       <c r="I34" s="5">
         <v>25</v>
       </c>
-      <c r="J34" s="19" t="str">
+      <c r="J34" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -3801,7 +4356,7 @@
       <c r="F35" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G35" s="19" t="str">
+      <c r="G35" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3811,7 +4366,7 @@
       <c r="I35" s="5">
         <v>50</v>
       </c>
-      <c r="J35" s="19" t="str">
+      <c r="J35" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3835,7 +4390,7 @@
       <c r="F36" s="4">
         <v>25</v>
       </c>
-      <c r="G36" s="19" t="str">
+      <c r="G36" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3845,7 +4400,7 @@
       <c r="I36" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J36" s="19" t="str">
+      <c r="J36" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3869,7 +4424,7 @@
       <c r="F37" s="4">
         <v>25</v>
       </c>
-      <c r="G37" s="19" t="str">
+      <c r="G37" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3879,7 +4434,7 @@
       <c r="I37" s="5">
         <v>50</v>
       </c>
-      <c r="J37" s="19" t="str">
+      <c r="J37" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3903,7 +4458,7 @@
       <c r="F38" s="4">
         <v>25</v>
       </c>
-      <c r="G38" s="19" t="str">
+      <c r="G38" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3913,7 +4468,7 @@
       <c r="I38" s="5">
         <v>66.7</v>
       </c>
-      <c r="J38" s="19" t="str">
+      <c r="J38" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3937,7 +4492,7 @@
       <c r="F39" s="4">
         <v>25</v>
       </c>
-      <c r="G39" s="19" t="str">
+      <c r="G39" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3947,7 +4502,7 @@
       <c r="I39" s="5">
         <v>50</v>
       </c>
-      <c r="J39" s="19" t="str">
+      <c r="J39" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3971,7 +4526,7 @@
       <c r="F40" s="4">
         <v>16.7</v>
       </c>
-      <c r="G40" s="19" t="str">
+      <c r="G40" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -3981,7 +4536,7 @@
       <c r="I40" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J40" s="19" t="str">
+      <c r="J40" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4005,7 +4560,7 @@
       <c r="F41" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G41" s="19" t="str">
+      <c r="G41" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4015,7 +4570,7 @@
       <c r="I41" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J41" s="19" t="str">
+      <c r="J41" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4039,7 +4594,7 @@
       <c r="F42" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G42" s="19" t="str">
+      <c r="G42" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4049,7 +4604,7 @@
       <c r="I42" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J42" s="19" t="str">
+      <c r="J42" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4073,7 +4628,7 @@
       <c r="F43" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G43" s="19" t="str">
+      <c r="G43" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4083,7 +4638,7 @@
       <c r="I43" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J43" s="19" t="str">
+      <c r="J43" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4107,7 +4662,7 @@
       <c r="F44" s="4">
         <v>25</v>
       </c>
-      <c r="G44" s="19" t="str">
+      <c r="G44" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4117,7 +4672,7 @@
       <c r="I44" s="5">
         <v>58.3</v>
       </c>
-      <c r="J44" s="19" t="str">
+      <c r="J44" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4141,7 +4696,7 @@
       <c r="F45" s="4">
         <v>25</v>
       </c>
-      <c r="G45" s="19" t="str">
+      <c r="G45" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -4151,7 +4706,7 @@
       <c r="I45" s="5">
         <v>50</v>
       </c>
-      <c r="J45" s="19" t="str">
+      <c r="J45" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -4175,7 +4730,7 @@
       <c r="F46" s="4">
         <v>16.7</v>
       </c>
-      <c r="G46" s="19" t="str">
+      <c r="G46" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -4185,7 +4740,7 @@
       <c r="I46" s="5">
         <v>41.7</v>
       </c>
-      <c r="J46" s="19" t="str">
+      <c r="J46" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -4209,7 +4764,7 @@
       <c r="F47" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G47" s="19" t="str">
+      <c r="G47" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4219,7 +4774,7 @@
       <c r="I47" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J47" s="19" t="str">
+      <c r="J47" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4243,7 +4798,7 @@
       <c r="F48" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G48" s="19" t="str">
+      <c r="G48" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4253,7 +4808,7 @@
       <c r="I48" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J48" s="19" t="str">
+      <c r="J48" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4277,7 +4832,7 @@
       <c r="F49" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G49" s="19" t="str">
+      <c r="G49" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4287,7 +4842,7 @@
       <c r="I49" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J49" s="19" t="str">
+      <c r="J49" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4311,7 +4866,7 @@
       <c r="F50" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G50" s="19" t="str">
+      <c r="G50" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4321,7 +4876,7 @@
       <c r="I50" s="5">
         <v>66.7</v>
       </c>
-      <c r="J50" s="19" t="str">
+      <c r="J50" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4345,7 +4900,7 @@
       <c r="F51" s="4">
         <v>25</v>
       </c>
-      <c r="G51" s="19" t="str">
+      <c r="G51" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4355,7 +4910,7 @@
       <c r="I51" s="5">
         <v>58.3</v>
       </c>
-      <c r="J51" s="19" t="str">
+      <c r="J51" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4379,7 +4934,7 @@
       <c r="F52" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G52" s="19" t="str">
+      <c r="G52" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -4389,7 +4944,7 @@
       <c r="I52" s="5">
         <v>58.3</v>
       </c>
-      <c r="J52" s="19" t="str">
+      <c r="J52" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4413,7 +4968,7 @@
       <c r="F53" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G53" s="19" t="str">
+      <c r="G53" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4423,7 +4978,7 @@
       <c r="I53" s="5">
         <v>66.7</v>
       </c>
-      <c r="J53" s="19" t="str">
+      <c r="J53" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4447,7 +5002,7 @@
       <c r="F54" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G54" s="19" t="str">
+      <c r="G54" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4457,7 +5012,7 @@
       <c r="I54" s="5">
         <v>66.7</v>
       </c>
-      <c r="J54" s="19" t="str">
+      <c r="J54" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4481,7 +5036,7 @@
       <c r="F55" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G55" s="19" t="str">
+      <c r="G55" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4491,7 +5046,7 @@
       <c r="I55" s="5">
         <v>66.7</v>
       </c>
-      <c r="J55" s="19" t="str">
+      <c r="J55" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4515,7 +5070,7 @@
       <c r="F56" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G56" s="19" t="str">
+      <c r="G56" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4525,7 +5080,7 @@
       <c r="I56" s="5">
         <v>16.7</v>
       </c>
-      <c r="J56" s="19" t="str">
+      <c r="J56" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4549,7 +5104,7 @@
       <c r="F57" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G57" s="19" t="str">
+      <c r="G57" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4559,7 +5114,7 @@
       <c r="I57" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J57" s="19" t="str">
+      <c r="J57" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4583,7 +5138,7 @@
       <c r="F58" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G58" s="19" t="str">
+      <c r="G58" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4593,7 +5148,7 @@
       <c r="I58" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J58" s="19" t="str">
+      <c r="J58" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4617,7 +5172,7 @@
       <c r="F59" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G59" s="19" t="str">
+      <c r="G59" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4627,7 +5182,7 @@
       <c r="I59" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J59" s="19" t="str">
+      <c r="J59" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4651,7 +5206,7 @@
       <c r="F60" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G60" s="19" t="str">
+      <c r="G60" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4661,7 +5216,7 @@
       <c r="I60" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J60" s="19" t="str">
+      <c r="J60" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4685,7 +5240,7 @@
       <c r="F61" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G61" s="19" t="str">
+      <c r="G61" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4695,7 +5250,7 @@
       <c r="I61" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J61" s="19" t="str">
+      <c r="J61" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4719,7 +5274,7 @@
       <c r="F62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="19" t="str">
+      <c r="G62" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4729,7 +5284,7 @@
       <c r="I62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J62" s="19" t="str">
+      <c r="J62" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4753,7 +5308,7 @@
       <c r="F63" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="19" t="str">
+      <c r="G63" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4763,7 +5318,7 @@
       <c r="I63" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J63" s="19" t="str">
+      <c r="J63" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4787,7 +5342,7 @@
       <c r="F64" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="19" t="str">
+      <c r="G64" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4797,7 +5352,7 @@
       <c r="I64" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J64" s="19" t="str">
+      <c r="J64" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4821,7 +5376,7 @@
       <c r="F65" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="19" t="str">
+      <c r="G65" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4831,7 +5386,7 @@
       <c r="I65" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J65" s="19" t="str">
+      <c r="J65" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4855,7 +5410,7 @@
       <c r="F66" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="19" t="str">
+      <c r="G66" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4865,7 +5420,7 @@
       <c r="I66" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J66" s="19" t="str">
+      <c r="J66" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4889,7 +5444,7 @@
       <c r="F67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="19" t="str">
+      <c r="G67" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4899,7 +5454,7 @@
       <c r="I67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J67" s="19" t="str">
+      <c r="J67" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4923,7 +5478,7 @@
       <c r="F68" s="4">
         <v>16.7</v>
       </c>
-      <c r="G68" s="19" t="str">
+      <c r="G68" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4933,7 +5488,7 @@
       <c r="I68" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J68" s="19" t="str">
+      <c r="J68" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4957,7 +5512,7 @@
       <c r="F69" s="4">
         <v>16.7</v>
       </c>
-      <c r="G69" s="19" t="str">
+      <c r="G69" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -4967,7 +5522,7 @@
       <c r="I69" s="5">
         <v>25</v>
       </c>
-      <c r="J69" s="19" t="str">
+      <c r="J69" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -4991,7 +5546,7 @@
       <c r="F70" s="4">
         <v>16.7</v>
       </c>
-      <c r="G70" s="19" t="str">
+      <c r="G70" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5001,7 +5556,7 @@
       <c r="I70" s="5">
         <v>41.7</v>
       </c>
-      <c r="J70" s="19" t="str">
+      <c r="J70" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5025,7 +5580,7 @@
       <c r="F71" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G71" s="19" t="str">
+      <c r="G71" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5035,7 +5590,7 @@
       <c r="I71" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J71" s="19" t="str">
+      <c r="J71" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5059,7 +5614,7 @@
       <c r="F72" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G72" s="19" t="str">
+      <c r="G72" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5069,7 +5624,7 @@
       <c r="I72" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J72" s="19" t="str">
+      <c r="J72" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5093,7 +5648,7 @@
       <c r="F73" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G73" s="19" t="str">
+      <c r="G73" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5103,7 +5658,7 @@
       <c r="I73" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J73" s="19" t="str">
+      <c r="J73" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5127,7 +5682,7 @@
       <c r="F74" s="4">
         <v>41.7</v>
       </c>
-      <c r="G74" s="19" t="str">
+      <c r="G74" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5137,7 +5692,7 @@
       <c r="I74" s="5">
         <v>75</v>
       </c>
-      <c r="J74" s="19" t="str">
+      <c r="J74" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5161,7 +5716,7 @@
       <c r="F75" s="4">
         <v>25</v>
       </c>
-      <c r="G75" s="19" t="str">
+      <c r="G75" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5171,7 +5726,7 @@
       <c r="I75" s="5">
         <v>50</v>
       </c>
-      <c r="J75" s="19" t="str">
+      <c r="J75" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5195,7 +5750,7 @@
       <c r="F76" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G76" s="19" t="str">
+      <c r="G76" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5205,7 +5760,7 @@
       <c r="I76" s="5">
         <v>58.3</v>
       </c>
-      <c r="J76" s="19" t="str">
+      <c r="J76" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5229,7 +5784,7 @@
       <c r="F77" s="4">
         <v>25</v>
       </c>
-      <c r="G77" s="19" t="str">
+      <c r="G77" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5239,7 +5794,7 @@
       <c r="I77" s="5">
         <v>50</v>
       </c>
-      <c r="J77" s="19" t="str">
+      <c r="J77" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5263,7 +5818,7 @@
       <c r="F78" s="4">
         <v>25</v>
       </c>
-      <c r="G78" s="19" t="str">
+      <c r="G78" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5273,7 +5828,7 @@
       <c r="I78" s="5">
         <v>50</v>
       </c>
-      <c r="J78" s="19" t="str">
+      <c r="J78" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5297,7 +5852,7 @@
       <c r="F79" s="4">
         <v>25</v>
       </c>
-      <c r="G79" s="19" t="str">
+      <c r="G79" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5307,7 +5862,7 @@
       <c r="I79" s="5">
         <v>50</v>
       </c>
-      <c r="J79" s="19" t="str">
+      <c r="J79" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5331,7 +5886,7 @@
       <c r="F80" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G80" s="19" t="str">
+      <c r="G80" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5341,7 +5896,7 @@
       <c r="I80" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J80" s="19" t="str">
+      <c r="J80" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5365,7 +5920,7 @@
       <c r="F81" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G81" s="19" t="str">
+      <c r="G81" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5375,7 +5930,7 @@
       <c r="I81" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J81" s="19" t="str">
+      <c r="J81" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5399,7 +5954,7 @@
       <c r="F82" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G82" s="19" t="str">
+      <c r="G82" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5409,7 +5964,7 @@
       <c r="I82" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J82" s="19" t="str">
+      <c r="J82" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5433,7 +5988,7 @@
       <c r="F83" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G83" s="19" t="str">
+      <c r="G83" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5443,7 +5998,7 @@
       <c r="I83" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J83" s="19" t="str">
+      <c r="J83" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5467,7 +6022,7 @@
       <c r="F84" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G84" s="19" t="str">
+      <c r="G84" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5477,7 +6032,7 @@
       <c r="I84" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J84" s="19" t="str">
+      <c r="J84" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5501,7 +6056,7 @@
       <c r="F85" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G85" s="19" t="str">
+      <c r="G85" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5511,7 +6066,7 @@
       <c r="I85" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J85" s="19" t="str">
+      <c r="J85" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5535,7 +6090,7 @@
       <c r="F86" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G86" s="19" t="str">
+      <c r="G86" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5545,7 +6100,7 @@
       <c r="I86" s="5">
         <v>16.7</v>
       </c>
-      <c r="J86" s="19" t="str">
+      <c r="J86" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5569,7 +6124,7 @@
       <c r="F87" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G87" s="19" t="str">
+      <c r="G87" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5579,7 +6134,7 @@
       <c r="I87" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J87" s="19" t="str">
+      <c r="J87" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5603,7 +6158,7 @@
       <c r="F88" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G88" s="19" t="str">
+      <c r="G88" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5613,7 +6168,7 @@
       <c r="I88" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J88" s="19" t="str">
+      <c r="J88" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5637,7 +6192,7 @@
       <c r="F89" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G89" s="19" t="str">
+      <c r="G89" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5647,7 +6202,7 @@
       <c r="I89" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J89" s="19" t="str">
+      <c r="J89" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5671,7 +6226,7 @@
       <c r="F90" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G90" s="19" t="str">
+      <c r="G90" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5681,7 +6236,7 @@
       <c r="I90" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J90" s="19" t="str">
+      <c r="J90" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5705,7 +6260,7 @@
       <c r="F91" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G91" s="19" t="str">
+      <c r="G91" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5715,7 +6270,7 @@
       <c r="I91" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J91" s="19" t="str">
+      <c r="J91" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5739,7 +6294,7 @@
       <c r="F92" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G92" s="19" t="str">
+      <c r="G92" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5749,7 +6304,7 @@
       <c r="I92" s="5">
         <v>66.7</v>
       </c>
-      <c r="J92" s="19" t="str">
+      <c r="J92" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5773,7 +6328,7 @@
       <c r="F93" s="4">
         <v>25</v>
       </c>
-      <c r="G93" s="19" t="str">
+      <c r="G93" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5783,7 +6338,7 @@
       <c r="I93" s="5">
         <v>50</v>
       </c>
-      <c r="J93" s="19" t="str">
+      <c r="J93" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5807,7 +6362,7 @@
       <c r="F94" s="4">
         <v>25</v>
       </c>
-      <c r="G94" s="19" t="str">
+      <c r="G94" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5817,7 +6372,7 @@
       <c r="I94" s="5">
         <v>41.7</v>
       </c>
-      <c r="J94" s="19" t="str">
+      <c r="J94" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -5841,7 +6396,7 @@
       <c r="F95" s="4">
         <v>16.7</v>
       </c>
-      <c r="G95" s="19" t="str">
+      <c r="G95" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5851,7 +6406,7 @@
       <c r="I95" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J95" s="19" t="str">
+      <c r="J95" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5875,7 +6430,7 @@
       <c r="F96" s="4">
         <v>16.7</v>
       </c>
-      <c r="G96" s="19" t="str">
+      <c r="G96" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5885,7 +6440,7 @@
       <c r="I96" s="5">
         <v>25</v>
       </c>
-      <c r="J96" s="19" t="str">
+      <c r="J96" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5909,7 +6464,7 @@
       <c r="F97" s="4">
         <v>16.7</v>
       </c>
-      <c r="G97" s="19" t="str">
+      <c r="G97" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5919,7 +6474,7 @@
       <c r="I97" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J97" s="19" t="str">
+      <c r="J97" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5943,7 +6498,7 @@
       <c r="F98" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G98" s="19" t="str">
+      <c r="G98" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5953,7 +6508,7 @@
       <c r="I98" s="5">
         <v>16.7</v>
       </c>
-      <c r="J98" s="19" t="str">
+      <c r="J98" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -5977,7 +6532,7 @@
       <c r="F99" s="4">
         <v>16.7</v>
       </c>
-      <c r="G99" s="19" t="str">
+      <c r="G99" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -5987,7 +6542,7 @@
       <c r="I99" s="5">
         <v>16.7</v>
       </c>
-      <c r="J99" s="19" t="str">
+      <c r="J99" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6011,7 +6566,7 @@
       <c r="F100" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G100" s="19" t="str">
+      <c r="G100" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6021,7 +6576,7 @@
       <c r="I100" s="5">
         <v>16.7</v>
       </c>
-      <c r="J100" s="19" t="str">
+      <c r="J100" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6045,7 +6600,7 @@
       <c r="F101" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G101" s="19" t="str">
+      <c r="G101" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6055,7 +6610,7 @@
       <c r="I101" s="5">
         <v>16.7</v>
       </c>
-      <c r="J101" s="19" t="str">
+      <c r="J101" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6079,7 +6634,7 @@
       <c r="F102" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G102" s="19" t="str">
+      <c r="G102" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6089,7 +6644,7 @@
       <c r="I102" s="5">
         <v>16.7</v>
       </c>
-      <c r="J102" s="19" t="str">
+      <c r="J102" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6113,7 +6668,7 @@
       <c r="F103" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G103" s="19" t="str">
+      <c r="G103" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6123,7 +6678,7 @@
       <c r="I103" s="5">
         <v>16.7</v>
       </c>
-      <c r="J103" s="19" t="str">
+      <c r="J103" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6147,7 +6702,7 @@
       <c r="F104" s="4">
         <v>50</v>
       </c>
-      <c r="G104" s="19" t="str">
+      <c r="G104" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6157,7 +6712,7 @@
       <c r="I104" s="5">
         <v>80</v>
       </c>
-      <c r="J104" s="19" t="str">
+      <c r="J104" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6181,7 +6736,7 @@
       <c r="F105" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G105" s="19" t="str">
+      <c r="G105" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -6191,7 +6746,7 @@
       <c r="I105" s="5">
         <v>75</v>
       </c>
-      <c r="J105" s="19" t="str">
+      <c r="J105" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6215,7 +6770,7 @@
       <c r="F106" s="4">
         <v>41.7</v>
       </c>
-      <c r="G106" s="19" t="str">
+      <c r="G106" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6225,7 +6780,7 @@
       <c r="I106" s="5">
         <v>75</v>
       </c>
-      <c r="J106" s="19" t="str">
+      <c r="J106" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6249,7 +6804,7 @@
       <c r="F107" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G107" s="19" t="str">
+      <c r="G107" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6259,7 +6814,7 @@
       <c r="I107" s="5">
         <v>58.3</v>
       </c>
-      <c r="J107" s="19" t="str">
+      <c r="J107" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6283,7 +6838,7 @@
       <c r="F108" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G108" s="19" t="str">
+      <c r="G108" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6293,7 +6848,7 @@
       <c r="I108" s="5">
         <v>58.3</v>
       </c>
-      <c r="J108" s="19" t="str">
+      <c r="J108" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6317,7 +6872,7 @@
       <c r="F109" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G109" s="19" t="str">
+      <c r="G109" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6327,7 +6882,7 @@
       <c r="I109" s="5">
         <v>66.7</v>
       </c>
-      <c r="J109" s="19" t="str">
+      <c r="J109" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6351,7 +6906,7 @@
       <c r="F110" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G110" s="19" t="str">
+      <c r="G110" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6361,7 +6916,7 @@
       <c r="I110" s="5">
         <v>58.3</v>
       </c>
-      <c r="J110" s="19" t="str">
+      <c r="J110" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6385,7 +6940,7 @@
       <c r="F111" s="4">
         <v>25</v>
       </c>
-      <c r="G111" s="19" t="str">
+      <c r="G111" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6395,7 +6950,7 @@
       <c r="I111" s="5">
         <v>50</v>
       </c>
-      <c r="J111" s="19" t="str">
+      <c r="J111" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6419,7 +6974,7 @@
       <c r="F112" s="4">
         <v>16.7</v>
       </c>
-      <c r="G112" s="19" t="str">
+      <c r="G112" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6429,7 +6984,7 @@
       <c r="I112" s="5">
         <v>41.7</v>
       </c>
-      <c r="J112" s="19" t="str">
+      <c r="J112" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6453,7 +7008,7 @@
       <c r="F113" s="4">
         <v>25</v>
       </c>
-      <c r="G113" s="19" t="str">
+      <c r="G113" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6463,7 +7018,7 @@
       <c r="I113" s="5">
         <v>58.3</v>
       </c>
-      <c r="J113" s="19" t="str">
+      <c r="J113" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6487,7 +7042,7 @@
       <c r="F114" s="4">
         <v>25</v>
       </c>
-      <c r="G114" s="19" t="str">
+      <c r="G114" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6497,7 +7052,7 @@
       <c r="I114" s="5">
         <v>50</v>
       </c>
-      <c r="J114" s="19" t="str">
+      <c r="J114" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6521,7 +7076,7 @@
       <c r="F115" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="G115" s="19" t="str">
+      <c r="G115" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6531,7 +7086,7 @@
       <c r="I115" s="5">
         <v>50</v>
       </c>
-      <c r="J115" s="19" t="str">
+      <c r="J115" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -6555,7 +7110,7 @@
       <c r="F116" s="4">
         <v>16.7</v>
       </c>
-      <c r="G116" s="19" t="str">
+      <c r="G116" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -6565,7 +7120,7 @@
       <c r="I116" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="J116" s="19" t="str">
+      <c r="J116" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -6589,7 +7144,7 @@
       <c r="F117" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G117" s="19" t="str">
+      <c r="G117" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -6599,7 +7154,7 @@
       <c r="I117" s="5">
         <v>25</v>
       </c>
-      <c r="J117" s="19" t="str">
+      <c r="J117" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -6623,7 +7178,7 @@
       <c r="F118" s="4">
         <v>16.7</v>
       </c>
-      <c r="G118" s="19" t="str">
+      <c r="G118" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6633,7 +7188,7 @@
       <c r="I118" s="5">
         <v>25</v>
       </c>
-      <c r="J118" s="19" t="str">
+      <c r="J118" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -6657,7 +7212,7 @@
       <c r="F119" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G119" s="19" t="str">
+      <c r="G119" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6667,7 +7222,7 @@
       <c r="I119" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J119" s="19" t="str">
+      <c r="J119" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6691,7 +7246,7 @@
       <c r="F120" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G120" s="19" t="str">
+      <c r="G120" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6701,7 +7256,7 @@
       <c r="I120" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J120" s="19" t="str">
+      <c r="J120" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6725,7 +7280,7 @@
       <c r="F121" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G121" s="19" t="str">
+      <c r="G121" s="18" t="str">
         <f>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6735,75 +7290,75 @@
       <c r="I121" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J121" s="19" t="str">
+      <c r="J121" s="18" t="str">
         <f>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G121">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J121">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6838,7 +7393,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6856,7 +7411,7 @@
       <c r="F1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>190</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -6865,7 +7420,7 @@
       <c r="I1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6888,7 +7443,7 @@
       <c r="F2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="19" t="str">
+      <c r="G2" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6898,7 +7453,7 @@
       <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="19" t="str">
+      <c r="J2" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6922,7 +7477,7 @@
       <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="19" t="str">
+      <c r="G3" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6932,7 +7487,7 @@
       <c r="I3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="19" t="str">
+      <c r="J3" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6956,7 +7511,7 @@
       <c r="F4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="19" t="str">
+      <c r="G4" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6966,7 +7521,7 @@
       <c r="I4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="J4" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -6990,7 +7545,7 @@
       <c r="F5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="19" t="str">
+      <c r="G5" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7000,7 +7555,7 @@
       <c r="I5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7024,7 +7579,7 @@
       <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7034,7 +7589,7 @@
       <c r="I6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7058,7 +7613,7 @@
       <c r="F7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7068,7 +7623,7 @@
       <c r="I7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7092,7 +7647,7 @@
       <c r="F8" s="4">
         <v>13.9</v>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7102,7 +7657,7 @@
       <c r="I8" s="5">
         <v>50</v>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7126,7 +7681,7 @@
       <c r="F9" s="4">
         <v>2.8</v>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7136,7 +7691,7 @@
       <c r="I9" s="4">
         <v>2.8</v>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7160,7 +7715,7 @@
       <c r="F10" s="4">
         <v>2.8</v>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7170,7 +7725,7 @@
       <c r="I10" s="4">
         <v>11.1</v>
       </c>
-      <c r="J10" s="19" t="str">
+      <c r="J10" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7194,7 +7749,7 @@
       <c r="F11" s="4">
         <v>2.8</v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7204,7 +7759,7 @@
       <c r="I11" s="4">
         <v>2.8</v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7228,7 +7783,7 @@
       <c r="F12" s="4">
         <v>2.8</v>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7238,7 +7793,7 @@
       <c r="I12" s="4">
         <v>2.8</v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="J12" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7262,7 +7817,7 @@
       <c r="F13" s="4">
         <v>2.8</v>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7272,7 +7827,7 @@
       <c r="I13" s="4">
         <v>2.8</v>
       </c>
-      <c r="J13" s="19" t="str">
+      <c r="J13" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7296,7 +7851,7 @@
       <c r="F14" s="4">
         <v>15.1</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7306,7 +7861,7 @@
       <c r="I14" s="5">
         <v>59</v>
       </c>
-      <c r="J14" s="19" t="str">
+      <c r="J14" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7330,7 +7885,7 @@
       <c r="F15" s="4">
         <v>1.2</v>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7340,7 +7895,7 @@
       <c r="I15" s="5">
         <v>10.8</v>
       </c>
-      <c r="J15" s="19" t="str">
+      <c r="J15" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7364,7 +7919,7 @@
       <c r="F16" s="4">
         <v>0.2</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7374,7 +7929,7 @@
       <c r="I16" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J16" s="19" t="str">
+      <c r="J16" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7398,7 +7953,7 @@
       <c r="F17" s="4">
         <v>0.1</v>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7408,7 +7963,7 @@
       <c r="I17" s="5">
         <v>0.1</v>
       </c>
-      <c r="J17" s="19" t="str">
+      <c r="J17" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7432,7 +7987,7 @@
       <c r="F18" s="4">
         <v>0.1</v>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7442,7 +7997,7 @@
       <c r="I18" s="5">
         <v>0.1</v>
       </c>
-      <c r="J18" s="19" t="str">
+      <c r="J18" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7466,7 +8021,7 @@
       <c r="F19" s="4">
         <v>0.1</v>
       </c>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7476,7 +8031,7 @@
       <c r="I19" s="5">
         <v>0.1</v>
       </c>
-      <c r="J19" s="19" t="str">
+      <c r="J19" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -7500,7 +8055,7 @@
       <c r="F20" s="4">
         <v>3.4</v>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7510,7 +8065,7 @@
       <c r="I20" s="5">
         <v>25.4</v>
       </c>
-      <c r="J20" s="19" t="str">
+      <c r="J20" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7534,7 +8089,7 @@
       <c r="F21" s="4">
         <v>6.8</v>
       </c>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7544,7 +8099,7 @@
       <c r="I21" s="4">
         <v>11.9</v>
       </c>
-      <c r="J21" s="19" t="str">
+      <c r="J21" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7568,7 +8123,7 @@
       <c r="F22" s="4">
         <v>4.2</v>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7578,7 +8133,7 @@
       <c r="I22" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="J22" s="19" t="str">
+      <c r="J22" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7602,7 +8157,7 @@
       <c r="F23" s="4">
         <v>0.8</v>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7612,7 +8167,7 @@
       <c r="I23" s="5">
         <v>0.8</v>
       </c>
-      <c r="J23" s="19" t="str">
+      <c r="J23" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7636,7 +8191,7 @@
       <c r="F24" s="4">
         <v>0.8</v>
       </c>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7646,7 +8201,7 @@
       <c r="I24" s="5">
         <v>0.8</v>
       </c>
-      <c r="J24" s="19" t="str">
+      <c r="J24" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7670,7 +8225,7 @@
       <c r="F25" s="4">
         <v>0.8</v>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7680,7 +8235,7 @@
       <c r="I25" s="5">
         <v>0.8</v>
       </c>
-      <c r="J25" s="19" t="str">
+      <c r="J25" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7704,7 +8259,7 @@
       <c r="F26" s="4">
         <v>26.8</v>
       </c>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7714,7 +8269,7 @@
       <c r="I26" s="4">
         <v>70.5</v>
       </c>
-      <c r="J26" s="19" t="str">
+      <c r="J26" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7738,7 +8293,7 @@
       <c r="F27" s="4">
         <v>0.9</v>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7748,7 +8303,7 @@
       <c r="I27" s="4">
         <v>12.5</v>
       </c>
-      <c r="J27" s="19" t="str">
+      <c r="J27" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7772,7 +8327,7 @@
       <c r="F28" s="4">
         <v>0.9</v>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7782,7 +8337,7 @@
       <c r="I28" s="4">
         <v>3.6</v>
       </c>
-      <c r="J28" s="19" t="str">
+      <c r="J28" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7806,7 +8361,7 @@
       <c r="F29" s="4">
         <v>0.9</v>
       </c>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7816,7 +8371,7 @@
       <c r="I29" s="4">
         <v>0.9</v>
       </c>
-      <c r="J29" s="19" t="str">
+      <c r="J29" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7840,7 +8395,7 @@
       <c r="F30" s="4">
         <v>0.9</v>
       </c>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7850,7 +8405,7 @@
       <c r="I30" s="4">
         <v>0.9</v>
       </c>
-      <c r="J30" s="19" t="str">
+      <c r="J30" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7874,7 +8429,7 @@
       <c r="F31" s="4">
         <v>0.9</v>
       </c>
-      <c r="G31" s="19" t="str">
+      <c r="G31" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7884,7 +8439,7 @@
       <c r="I31" s="4">
         <v>0.9</v>
       </c>
-      <c r="J31" s="19" t="str">
+      <c r="J31" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7908,7 +8463,7 @@
       <c r="F32" s="4">
         <v>0.7</v>
       </c>
-      <c r="G32" s="19" t="str">
+      <c r="G32" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7918,7 +8473,7 @@
       <c r="I32" s="5">
         <v>8.6</v>
       </c>
-      <c r="J32" s="19" t="str">
+      <c r="J32" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -7942,7 +8497,7 @@
       <c r="F33" s="4">
         <v>0.7</v>
       </c>
-      <c r="G33" s="19" t="str">
+      <c r="G33" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7952,7 +8507,7 @@
       <c r="I33" s="5">
         <v>0.7</v>
       </c>
-      <c r="J33" s="19" t="str">
+      <c r="J33" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7976,7 +8531,7 @@
       <c r="F34" s="4">
         <v>0.7</v>
       </c>
-      <c r="G34" s="19" t="str">
+      <c r="G34" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -7986,7 +8541,7 @@
       <c r="I34" s="5">
         <v>0.7</v>
       </c>
-      <c r="J34" s="19" t="str">
+      <c r="J34" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8010,7 +8565,7 @@
       <c r="F35" s="4">
         <v>0.7</v>
       </c>
-      <c r="G35" s="19" t="str">
+      <c r="G35" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8020,7 +8575,7 @@
       <c r="I35" s="5">
         <v>0.7</v>
       </c>
-      <c r="J35" s="19" t="str">
+      <c r="J35" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8044,7 +8599,7 @@
       <c r="F36" s="4">
         <v>0.7</v>
       </c>
-      <c r="G36" s="19" t="str">
+      <c r="G36" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8054,7 +8609,7 @@
       <c r="I36" s="5">
         <v>0.7</v>
       </c>
-      <c r="J36" s="19" t="str">
+      <c r="J36" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8078,7 +8633,7 @@
       <c r="F37" s="4">
         <v>0.7</v>
       </c>
-      <c r="G37" s="19" t="str">
+      <c r="G37" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8088,7 +8643,7 @@
       <c r="I37" s="5">
         <v>0.7</v>
       </c>
-      <c r="J37" s="19" t="str">
+      <c r="J37" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8112,7 +8667,7 @@
       <c r="F38" s="4">
         <v>12.6</v>
       </c>
-      <c r="G38" s="19" t="str">
+      <c r="G38" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8122,7 +8677,7 @@
       <c r="I38" s="5">
         <v>59.8</v>
       </c>
-      <c r="J38" s="19" t="str">
+      <c r="J38" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8146,7 +8701,7 @@
       <c r="F39" s="4">
         <v>0.1</v>
       </c>
-      <c r="G39" s="19" t="str">
+      <c r="G39" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8156,7 +8711,7 @@
       <c r="I39" s="5">
         <v>10.9</v>
       </c>
-      <c r="J39" s="19" t="str">
+      <c r="J39" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8180,7 +8735,7 @@
       <c r="F40" s="4">
         <v>0.3</v>
       </c>
-      <c r="G40" s="19" t="str">
+      <c r="G40" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -8190,7 +8745,7 @@
       <c r="I40" s="5">
         <v>1.2</v>
       </c>
-      <c r="J40" s="19" t="str">
+      <c r="J40" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8214,7 +8769,7 @@
       <c r="F41" s="4">
         <v>0.1</v>
       </c>
-      <c r="G41" s="19" t="str">
+      <c r="G41" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8224,7 +8779,7 @@
       <c r="I41" s="5">
         <v>0.1</v>
       </c>
-      <c r="J41" s="19" t="str">
+      <c r="J41" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8248,7 +8803,7 @@
       <c r="F42" s="4">
         <v>0.1</v>
       </c>
-      <c r="G42" s="19" t="str">
+      <c r="G42" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8258,7 +8813,7 @@
       <c r="I42" s="5">
         <v>0.1</v>
       </c>
-      <c r="J42" s="19" t="str">
+      <c r="J42" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8282,7 +8837,7 @@
       <c r="F43" s="4">
         <v>0.1</v>
       </c>
-      <c r="G43" s="19" t="str">
+      <c r="G43" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8292,7 +8847,7 @@
       <c r="I43" s="5">
         <v>0.1</v>
       </c>
-      <c r="J43" s="19" t="str">
+      <c r="J43" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8316,7 +8871,7 @@
       <c r="F44" s="4">
         <v>1.5</v>
       </c>
-      <c r="G44" s="19" t="str">
+      <c r="G44" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8326,7 +8881,7 @@
       <c r="I44" s="5">
         <v>7.7</v>
       </c>
-      <c r="J44" s="19" t="str">
+      <c r="J44" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8350,7 +8905,7 @@
       <c r="F45" s="4">
         <v>3.1</v>
       </c>
-      <c r="G45" s="19" t="str">
+      <c r="G45" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8360,7 +8915,7 @@
       <c r="I45" s="5">
         <v>3.1</v>
       </c>
-      <c r="J45" s="19" t="str">
+      <c r="J45" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8384,7 +8939,7 @@
       <c r="F46" s="4">
         <v>3.1</v>
       </c>
-      <c r="G46" s="19" t="str">
+      <c r="G46" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8394,7 +8949,7 @@
       <c r="I46" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J46" s="19" t="str">
+      <c r="J46" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8418,7 +8973,7 @@
       <c r="F47" s="4">
         <v>3.1</v>
       </c>
-      <c r="G47" s="19" t="str">
+      <c r="G47" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8428,7 +8983,7 @@
       <c r="I47" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J47" s="19" t="str">
+      <c r="J47" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8452,7 +9007,7 @@
       <c r="F48" s="4">
         <v>1.5</v>
       </c>
-      <c r="G48" s="19" t="str">
+      <c r="G48" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8462,7 +9017,7 @@
       <c r="I48" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J48" s="19" t="str">
+      <c r="J48" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8486,7 +9041,7 @@
       <c r="F49" s="4">
         <v>1.5</v>
       </c>
-      <c r="G49" s="19" t="str">
+      <c r="G49" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8496,7 +9051,7 @@
       <c r="I49" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J49" s="19" t="str">
+      <c r="J49" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8520,7 +9075,7 @@
       <c r="F50" s="4">
         <v>1.5</v>
       </c>
-      <c r="G50" s="19" t="str">
+      <c r="G50" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8530,7 +9085,7 @@
       <c r="I50" s="5">
         <v>4.5</v>
       </c>
-      <c r="J50" s="19" t="str">
+      <c r="J50" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8554,7 +9109,7 @@
       <c r="F51" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G51" s="19" t="str">
+      <c r="G51" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8564,7 +9119,7 @@
       <c r="I51" s="5">
         <v>2.6</v>
       </c>
-      <c r="J51" s="19" t="str">
+      <c r="J51" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8588,7 +9143,7 @@
       <c r="F52" s="4">
         <v>0.8</v>
       </c>
-      <c r="G52" s="19" t="str">
+      <c r="G52" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8598,7 +9153,7 @@
       <c r="I52" s="5">
         <v>1.9</v>
       </c>
-      <c r="J52" s="19" t="str">
+      <c r="J52" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8622,7 +9177,7 @@
       <c r="F53" s="4">
         <v>0.8</v>
       </c>
-      <c r="G53" s="19" t="str">
+      <c r="G53" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8632,7 +9187,7 @@
       <c r="I53" s="5">
         <v>2.6</v>
       </c>
-      <c r="J53" s="19" t="str">
+      <c r="J53" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8656,7 +9211,7 @@
       <c r="F54" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G54" s="19" t="str">
+      <c r="G54" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8666,7 +9221,7 @@
       <c r="I54" s="5">
         <v>3</v>
       </c>
-      <c r="J54" s="19" t="str">
+      <c r="J54" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8690,7 +9245,7 @@
       <c r="F55" s="4">
         <v>0.8</v>
       </c>
-      <c r="G55" s="19" t="str">
+      <c r="G55" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8700,7 +9255,7 @@
       <c r="I55" s="5">
         <v>2.6</v>
       </c>
-      <c r="J55" s="19" t="str">
+      <c r="J55" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8724,7 +9279,7 @@
       <c r="F56" s="4">
         <v>41.7</v>
       </c>
-      <c r="G56" s="19" t="str">
+      <c r="G56" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8734,7 +9289,7 @@
       <c r="I56" s="5">
         <v>77.8</v>
       </c>
-      <c r="J56" s="19" t="str">
+      <c r="J56" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8758,7 +9313,7 @@
       <c r="F57" s="4">
         <v>2.8</v>
       </c>
-      <c r="G57" s="19" t="str">
+      <c r="G57" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8768,7 +9323,7 @@
       <c r="I57" s="5">
         <v>5.6</v>
       </c>
-      <c r="J57" s="19" t="str">
+      <c r="J57" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8792,7 +9347,7 @@
       <c r="F58" s="4">
         <v>5.6</v>
       </c>
-      <c r="G58" s="19" t="str">
+      <c r="G58" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8802,7 +9357,7 @@
       <c r="I58" s="5">
         <v>5.6</v>
       </c>
-      <c r="J58" s="19" t="str">
+      <c r="J58" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -8826,7 +9381,7 @@
       <c r="F59" s="4">
         <v>2.8</v>
       </c>
-      <c r="G59" s="19" t="str">
+      <c r="G59" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8836,7 +9391,7 @@
       <c r="I59" s="5">
         <v>2.8</v>
       </c>
-      <c r="J59" s="19" t="str">
+      <c r="J59" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8860,7 +9415,7 @@
       <c r="F60" s="4">
         <v>2.8</v>
       </c>
-      <c r="G60" s="19" t="str">
+      <c r="G60" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8870,7 +9425,7 @@
       <c r="I60" s="5">
         <v>2.8</v>
       </c>
-      <c r="J60" s="19" t="str">
+      <c r="J60" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8894,7 +9449,7 @@
       <c r="F61" s="4">
         <v>2.8</v>
       </c>
-      <c r="G61" s="19" t="str">
+      <c r="G61" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8904,7 +9459,7 @@
       <c r="I61" s="5">
         <v>2.8</v>
       </c>
-      <c r="J61" s="19" t="str">
+      <c r="J61" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -8928,7 +9483,7 @@
       <c r="F62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="19" t="str">
+      <c r="G62" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -8938,7 +9493,7 @@
       <c r="I62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J62" s="19" t="str">
+      <c r="J62" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -8962,7 +9517,7 @@
       <c r="F63" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="19" t="str">
+      <c r="G63" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -8972,7 +9527,7 @@
       <c r="I63" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J63" s="19" t="str">
+      <c r="J63" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -8996,7 +9551,7 @@
       <c r="F64" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="19" t="str">
+      <c r="G64" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9006,7 +9561,7 @@
       <c r="I64" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J64" s="19" t="str">
+      <c r="J64" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9030,7 +9585,7 @@
       <c r="F65" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="19" t="str">
+      <c r="G65" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9040,7 +9595,7 @@
       <c r="I65" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J65" s="19" t="str">
+      <c r="J65" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9064,7 +9619,7 @@
       <c r="F66" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="19" t="str">
+      <c r="G66" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9074,7 +9629,7 @@
       <c r="I66" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J66" s="19" t="str">
+      <c r="J66" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9098,7 +9653,7 @@
       <c r="F67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="19" t="str">
+      <c r="G67" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9108,7 +9663,7 @@
       <c r="I67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J67" s="19" t="str">
+      <c r="J67" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -9132,7 +9687,7 @@
       <c r="F68" s="4">
         <v>10.5</v>
       </c>
-      <c r="G68" s="19" t="str">
+      <c r="G68" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9142,7 +9697,7 @@
       <c r="I68" s="5">
         <v>57.9</v>
       </c>
-      <c r="J68" s="19" t="str">
+      <c r="J68" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9166,7 +9721,7 @@
       <c r="F69" s="4">
         <v>5.3</v>
       </c>
-      <c r="G69" s="19" t="str">
+      <c r="G69" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9176,7 +9731,7 @@
       <c r="I69" s="5">
         <v>31.6</v>
       </c>
-      <c r="J69" s="19" t="str">
+      <c r="J69" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9200,7 +9755,7 @@
       <c r="F70" s="4">
         <v>10.5</v>
       </c>
-      <c r="G70" s="19" t="str">
+      <c r="G70" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9210,7 +9765,7 @@
       <c r="I70" s="5">
         <v>21.1</v>
       </c>
-      <c r="J70" s="19" t="str">
+      <c r="J70" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9234,7 +9789,7 @@
       <c r="F71" s="4">
         <v>5.3</v>
       </c>
-      <c r="G71" s="19" t="str">
+      <c r="G71" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9244,7 +9799,7 @@
       <c r="I71" s="5">
         <v>5.3</v>
       </c>
-      <c r="J71" s="19" t="str">
+      <c r="J71" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9268,7 +9823,7 @@
       <c r="F72" s="4">
         <v>5.3</v>
       </c>
-      <c r="G72" s="19" t="str">
+      <c r="G72" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9278,7 +9833,7 @@
       <c r="I72" s="5">
         <v>5.3</v>
       </c>
-      <c r="J72" s="19" t="str">
+      <c r="J72" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9302,7 +9857,7 @@
       <c r="F73" s="4">
         <v>5.3</v>
       </c>
-      <c r="G73" s="19" t="str">
+      <c r="G73" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9312,7 +9867,7 @@
       <c r="I73" s="5">
         <v>5.3</v>
       </c>
-      <c r="J73" s="19" t="str">
+      <c r="J73" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9336,7 +9891,7 @@
       <c r="F74" s="4">
         <v>1.5</v>
       </c>
-      <c r="G74" s="19" t="str">
+      <c r="G74" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9346,7 +9901,7 @@
       <c r="I74" s="5">
         <v>4.8</v>
       </c>
-      <c r="J74" s="19" t="str">
+      <c r="J74" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9370,7 +9925,7 @@
       <c r="F75" s="4">
         <v>0.4</v>
       </c>
-      <c r="G75" s="19" t="str">
+      <c r="G75" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9380,7 +9935,7 @@
       <c r="I75" s="5">
         <v>1.5</v>
       </c>
-      <c r="J75" s="19" t="str">
+      <c r="J75" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9404,7 +9959,7 @@
       <c r="F76" s="4">
         <v>0.4</v>
       </c>
-      <c r="G76" s="19" t="str">
+      <c r="G76" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9414,7 +9969,7 @@
       <c r="I76" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J76" s="19" t="str">
+      <c r="J76" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9438,7 +9993,7 @@
       <c r="F77" s="4">
         <v>0.4</v>
       </c>
-      <c r="G77" s="19" t="str">
+      <c r="G77" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9448,7 +10003,7 @@
       <c r="I77" s="5">
         <v>1.5</v>
       </c>
-      <c r="J77" s="19" t="str">
+      <c r="J77" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9472,7 +10027,7 @@
       <c r="F78" s="4">
         <v>0.4</v>
       </c>
-      <c r="G78" s="19" t="str">
+      <c r="G78" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9482,7 +10037,7 @@
       <c r="I78" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J78" s="19" t="str">
+      <c r="J78" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9506,7 +10061,7 @@
       <c r="F79" s="4">
         <v>0.4</v>
       </c>
-      <c r="G79" s="19" t="str">
+      <c r="G79" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9516,7 +10071,7 @@
       <c r="I79" s="5">
         <v>1.5</v>
       </c>
-      <c r="J79" s="19" t="str">
+      <c r="J79" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9540,7 +10095,7 @@
       <c r="F80" s="4">
         <v>10</v>
       </c>
-      <c r="G80" s="19" t="str">
+      <c r="G80" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9550,7 +10105,7 @@
       <c r="I80" s="5">
         <v>10</v>
       </c>
-      <c r="J80" s="19" t="str">
+      <c r="J80" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9574,7 +10129,7 @@
       <c r="F81" s="4">
         <v>10</v>
       </c>
-      <c r="G81" s="19" t="str">
+      <c r="G81" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9584,7 +10139,7 @@
       <c r="I81" s="5">
         <v>10</v>
       </c>
-      <c r="J81" s="19" t="str">
+      <c r="J81" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9608,7 +10163,7 @@
       <c r="F82" s="4">
         <v>10</v>
       </c>
-      <c r="G82" s="19" t="str">
+      <c r="G82" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9618,7 +10173,7 @@
       <c r="I82" s="5">
         <v>10</v>
       </c>
-      <c r="J82" s="19" t="str">
+      <c r="J82" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9642,7 +10197,7 @@
       <c r="F83" s="4">
         <v>10</v>
       </c>
-      <c r="G83" s="19" t="str">
+      <c r="G83" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9652,7 +10207,7 @@
       <c r="I83" s="5">
         <v>10</v>
       </c>
-      <c r="J83" s="19" t="str">
+      <c r="J83" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9676,7 +10231,7 @@
       <c r="F84" s="4">
         <v>10</v>
       </c>
-      <c r="G84" s="19" t="str">
+      <c r="G84" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9686,7 +10241,7 @@
       <c r="I84" s="5">
         <v>10</v>
       </c>
-      <c r="J84" s="19" t="str">
+      <c r="J84" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9710,7 +10265,7 @@
       <c r="F85" s="4">
         <v>10</v>
       </c>
-      <c r="G85" s="19" t="str">
+      <c r="G85" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9720,7 +10275,7 @@
       <c r="I85" s="5">
         <v>10</v>
       </c>
-      <c r="J85" s="19" t="str">
+      <c r="J85" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9744,7 +10299,7 @@
       <c r="F86" s="4">
         <v>6.7</v>
       </c>
-      <c r="G86" s="19" t="str">
+      <c r="G86" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9754,7 +10309,7 @@
       <c r="I86" s="5">
         <v>6.7</v>
       </c>
-      <c r="J86" s="19" t="str">
+      <c r="J86" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9778,7 +10333,7 @@
       <c r="F87" s="4">
         <v>6.7</v>
       </c>
-      <c r="G87" s="19" t="str">
+      <c r="G87" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9788,7 +10343,7 @@
       <c r="I87" s="5">
         <v>6.7</v>
       </c>
-      <c r="J87" s="19" t="str">
+      <c r="J87" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9812,7 +10367,7 @@
       <c r="F88" s="4">
         <v>6.7</v>
       </c>
-      <c r="G88" s="19" t="str">
+      <c r="G88" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9822,7 +10377,7 @@
       <c r="I88" s="5">
         <v>6.7</v>
       </c>
-      <c r="J88" s="19" t="str">
+      <c r="J88" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9846,7 +10401,7 @@
       <c r="F89" s="4">
         <v>6.7</v>
       </c>
-      <c r="G89" s="19" t="str">
+      <c r="G89" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9856,7 +10411,7 @@
       <c r="I89" s="5">
         <v>6.7</v>
       </c>
-      <c r="J89" s="19" t="str">
+      <c r="J89" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9880,7 +10435,7 @@
       <c r="F90" s="4">
         <v>6.7</v>
       </c>
-      <c r="G90" s="19" t="str">
+      <c r="G90" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9890,7 +10445,7 @@
       <c r="I90" s="5">
         <v>6.7</v>
       </c>
-      <c r="J90" s="19" t="str">
+      <c r="J90" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9914,7 +10469,7 @@
       <c r="F91" s="4">
         <v>6.7</v>
       </c>
-      <c r="G91" s="19" t="str">
+      <c r="G91" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9924,7 +10479,7 @@
       <c r="I91" s="5">
         <v>6.7</v>
       </c>
-      <c r="J91" s="19" t="str">
+      <c r="J91" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -9948,7 +10503,7 @@
       <c r="F92" s="4">
         <v>0.6</v>
       </c>
-      <c r="G92" s="19" t="str">
+      <c r="G92" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -9958,7 +10513,7 @@
       <c r="I92" s="5">
         <v>54</v>
       </c>
-      <c r="J92" s="19" t="str">
+      <c r="J92" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -9982,7 +10537,7 @@
       <c r="F93" s="4">
         <v>0.4</v>
       </c>
-      <c r="G93" s="19" t="str">
+      <c r="G93" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -9992,7 +10547,7 @@
       <c r="I93" s="5">
         <v>1.3</v>
       </c>
-      <c r="J93" s="19" t="str">
+      <c r="J93" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10016,7 +10571,7 @@
       <c r="F94" s="4">
         <v>0.4</v>
       </c>
-      <c r="G94" s="19" t="str">
+      <c r="G94" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -10026,7 +10581,7 @@
       <c r="I94" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J94" s="19" t="str">
+      <c r="J94" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10050,7 +10605,7 @@
       <c r="F95" s="4">
         <v>0.9</v>
       </c>
-      <c r="G95" s="19" t="str">
+      <c r="G95" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10060,7 +10615,7 @@
       <c r="I95" s="5">
         <v>1.5</v>
       </c>
-      <c r="J95" s="19" t="str">
+      <c r="J95" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10084,7 +10639,7 @@
       <c r="F96" s="4">
         <v>0.6</v>
       </c>
-      <c r="G96" s="19" t="str">
+      <c r="G96" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10094,7 +10649,7 @@
       <c r="I96" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J96" s="19" t="str">
+      <c r="J96" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10118,7 +10673,7 @@
       <c r="F97" s="4">
         <v>0.9</v>
       </c>
-      <c r="G97" s="19" t="str">
+      <c r="G97" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10128,7 +10683,7 @@
       <c r="I97" s="5">
         <v>1.5</v>
       </c>
-      <c r="J97" s="19" t="str">
+      <c r="J97" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10152,7 +10707,7 @@
       <c r="F98" s="4">
         <v>1</v>
       </c>
-      <c r="G98" s="19" t="str">
+      <c r="G98" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10162,7 +10717,7 @@
       <c r="I98" s="5">
         <v>53.5</v>
       </c>
-      <c r="J98" s="19" t="str">
+      <c r="J98" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10186,7 +10741,7 @@
       <c r="F99" s="4">
         <v>1</v>
       </c>
-      <c r="G99" s="19" t="str">
+      <c r="G99" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10196,7 +10751,7 @@
       <c r="I99" s="5">
         <v>2</v>
       </c>
-      <c r="J99" s="19" t="str">
+      <c r="J99" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10220,7 +10775,7 @@
       <c r="F100" s="4">
         <v>1</v>
       </c>
-      <c r="G100" s="19" t="str">
+      <c r="G100" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10230,7 +10785,7 @@
       <c r="I100" s="5">
         <v>1</v>
       </c>
-      <c r="J100" s="19" t="str">
+      <c r="J100" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10254,7 +10809,7 @@
       <c r="F101" s="4">
         <v>1</v>
       </c>
-      <c r="G101" s="19" t="str">
+      <c r="G101" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10264,7 +10819,7 @@
       <c r="I101" s="5">
         <v>2</v>
       </c>
-      <c r="J101" s="19" t="str">
+      <c r="J101" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10288,7 +10843,7 @@
       <c r="F102" s="4">
         <v>1</v>
       </c>
-      <c r="G102" s="19" t="str">
+      <c r="G102" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10298,7 +10853,7 @@
       <c r="I102" s="5">
         <v>3</v>
       </c>
-      <c r="J102" s="19" t="str">
+      <c r="J102" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10322,7 +10877,7 @@
       <c r="F103" s="4">
         <v>1</v>
       </c>
-      <c r="G103" s="19" t="str">
+      <c r="G103" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10332,7 +10887,7 @@
       <c r="I103" s="5">
         <v>2</v>
       </c>
-      <c r="J103" s="19" t="str">
+      <c r="J103" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10356,7 +10911,7 @@
       <c r="F104" s="4">
         <v>0.8</v>
       </c>
-      <c r="G104" s="19" t="str">
+      <c r="G104" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10366,7 +10921,7 @@
       <c r="I104" s="5">
         <v>5.2</v>
       </c>
-      <c r="J104" s="19" t="str">
+      <c r="J104" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10390,7 +10945,7 @@
       <c r="F105" s="4">
         <v>1.5</v>
       </c>
-      <c r="G105" s="19" t="str">
+      <c r="G105" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10400,7 +10955,7 @@
       <c r="I105" s="5">
         <v>4.5</v>
       </c>
-      <c r="J105" s="19" t="str">
+      <c r="J105" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -10424,7 +10979,7 @@
       <c r="F106" s="4">
         <v>1</v>
       </c>
-      <c r="G106" s="19" t="str">
+      <c r="G106" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>No Change</v>
       </c>
@@ -10434,7 +10989,7 @@
       <c r="I106" s="5">
         <v>2.8</v>
       </c>
-      <c r="J106" s="19" t="str">
+      <c r="J106" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10458,7 +11013,7 @@
       <c r="F107" s="4">
         <v>0.4</v>
       </c>
-      <c r="G107" s="19" t="str">
+      <c r="G107" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10468,7 +11023,7 @@
       <c r="I107" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J107" s="19" t="str">
+      <c r="J107" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10492,7 +11047,7 @@
       <c r="F108" s="4">
         <v>0.4</v>
       </c>
-      <c r="G108" s="19" t="str">
+      <c r="G108" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10502,7 +11057,7 @@
       <c r="I108" s="5">
         <v>1</v>
       </c>
-      <c r="J108" s="19" t="str">
+      <c r="J108" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10526,7 +11081,7 @@
       <c r="F109" s="4">
         <v>0.4</v>
       </c>
-      <c r="G109" s="19" t="str">
+      <c r="G109" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10536,7 +11091,7 @@
       <c r="I109" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J109" s="19" t="str">
+      <c r="J109" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10560,7 +11115,7 @@
       <c r="F110" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G110" s="19" t="str">
+      <c r="G110" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10570,7 +11125,7 @@
       <c r="I110" s="5">
         <v>51.7</v>
       </c>
-      <c r="J110" s="19" t="str">
+      <c r="J110" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10594,7 +11149,7 @@
       <c r="F111" s="4">
         <v>1.2</v>
       </c>
-      <c r="G111" s="19" t="str">
+      <c r="G111" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10604,7 +11159,7 @@
       <c r="I111" s="5">
         <v>16.7</v>
       </c>
-      <c r="J111" s="19" t="str">
+      <c r="J111" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10628,7 +11183,7 @@
       <c r="F112" s="4">
         <v>0.7</v>
       </c>
-      <c r="G112" s="19" t="str">
+      <c r="G112" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10638,7 +11193,7 @@
       <c r="I112" s="5">
         <v>5</v>
       </c>
-      <c r="J112" s="19" t="str">
+      <c r="J112" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10662,7 +11217,7 @@
       <c r="F113" s="4">
         <v>1</v>
       </c>
-      <c r="G113" s="19" t="str">
+      <c r="G113" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10672,7 +11227,7 @@
       <c r="I113" s="5">
         <v>12.7</v>
       </c>
-      <c r="J113" s="19" t="str">
+      <c r="J113" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10696,7 +11251,7 @@
       <c r="F114" s="4">
         <v>0.7</v>
       </c>
-      <c r="G114" s="19" t="str">
+      <c r="G114" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10706,7 +11261,7 @@
       <c r="I114" s="5">
         <v>9.1</v>
       </c>
-      <c r="J114" s="19" t="str">
+      <c r="J114" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10730,7 +11285,7 @@
       <c r="F115" s="4">
         <v>0.7</v>
       </c>
-      <c r="G115" s="19" t="str">
+      <c r="G115" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10740,7 +11295,7 @@
       <c r="I115" s="5">
         <v>9.1</v>
       </c>
-      <c r="J115" s="19" t="str">
+      <c r="J115" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10764,7 +11319,7 @@
       <c r="F116" s="4">
         <v>35.9</v>
       </c>
-      <c r="G116" s="19" t="str">
+      <c r="G116" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10774,7 +11329,7 @@
       <c r="I116" s="5">
         <v>74.599999999999994</v>
       </c>
-      <c r="J116" s="19" t="str">
+      <c r="J116" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10798,7 +11353,7 @@
       <c r="F117" s="4">
         <v>6.3</v>
       </c>
-      <c r="G117" s="19" t="str">
+      <c r="G117" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10808,7 +11363,7 @@
       <c r="I117" s="5">
         <v>23.9</v>
       </c>
-      <c r="J117" s="19" t="str">
+      <c r="J117" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Down</v>
       </c>
@@ -10832,7 +11387,7 @@
       <c r="F118" s="4">
         <v>2.8</v>
       </c>
-      <c r="G118" s="19" t="str">
+      <c r="G118" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10842,7 +11397,7 @@
       <c r="I118" s="5">
         <v>12</v>
       </c>
-      <c r="J118" s="19" t="str">
+      <c r="J118" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10866,7 +11421,7 @@
       <c r="F119" s="4">
         <v>0.7</v>
       </c>
-      <c r="G119" s="19" t="str">
+      <c r="G119" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10876,7 +11431,7 @@
       <c r="I119" s="5">
         <v>0.7</v>
       </c>
-      <c r="J119" s="19" t="str">
+      <c r="J119" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10900,7 +11455,7 @@
       <c r="F120" s="4">
         <v>0.7</v>
       </c>
-      <c r="G120" s="19" t="str">
+      <c r="G120" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10910,7 +11465,7 @@
       <c r="I120" s="5">
         <v>0.7</v>
       </c>
-      <c r="J120" s="19" t="str">
+      <c r="J120" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10934,7 +11489,7 @@
       <c r="F121" s="7">
         <v>0.7</v>
       </c>
-      <c r="G121" s="19" t="str">
+      <c r="G121" s="18" t="str">
         <f>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
@@ -10944,53 +11499,53 @@
       <c r="I121" s="8">
         <v>0.7</v>
       </c>
-      <c r="J121" s="19" t="str">
+      <c r="J121" s="18" t="str">
         <f>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</f>
         <v>Up</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J121">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11000,4 +11555,146 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDE7FA2-DFE3-4330-B2B8-E3C74159199F}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Sprint_1/repos/results/results.xlsx
+++ b/Sprint_1/repos/results/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ML_exercises\CS7CS5-202122-Dissertation\Sprint_1\repos\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE41D9A-8519-4ED3-9487-0EDB1A99F0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD93BF-9F20-4A00-A123-3C4A2F19EC4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{52F7B8C6-ED79-4422-B4E2-3C12B17FB23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregated" sheetId="1" r:id="rId1"/>
-    <sheet name="Per-Month" sheetId="2" r:id="rId2"/>
-    <sheet name="Per-Author" sheetId="3" r:id="rId3"/>
+    <sheet name="By-Month" sheetId="2" r:id="rId2"/>
+    <sheet name="By-Author" sheetId="3" r:id="rId3"/>
     <sheet name="Terms" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -988,6 +988,290 @@
   </cellStyles>
   <dxfs count="87">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1016,6 +1300,370 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1199,654 +1847,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2449,21 +2449,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C0C797F-5A79-4F40-B092-BB00BE5C2C7F}" name="Month_Table" displayName="Month_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C0C797F-5A79-4F40-B092-BB00BE5C2C7F}" name="Month_Table" displayName="Month_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A1:J121" xr:uid="{01ABD37D-F83F-4642-BFDB-B92B9C30E5A4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D01A52EA-F873-41A8-AF9B-24DCF719E4AA}" name="Repository Rank" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{339B1CCD-C64A-45BD-97C4-539A8C29A379}" name="Repository Name" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{DF40CB11-7EAE-4B4B-8526-1E187C34811B}" name="Marker" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{2F18F556-AB38-494E-A097-F01F0F98393D}" name="Trend in Mean" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{A67A06C9-CBF0-4737-AC70-3591231E2765}" name="Month Eq (pre)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{4AF80F60-D4BF-4B80-886D-FA3D7B97FF7F}" name="Month Eq (post)" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{E0E50CCA-870A-4D82-8F79-4423AD68F464}" name="Change Direction_x000a_(Month Eq)" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{D01A52EA-F873-41A8-AF9B-24DCF719E4AA}" name="Repository Rank" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{339B1CCD-C64A-45BD-97C4-539A8C29A379}" name="Repository Name" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{DF40CB11-7EAE-4B4B-8526-1E187C34811B}" name="Marker" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{2F18F556-AB38-494E-A097-F01F0F98393D}" name="Trend in Mean" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{A67A06C9-CBF0-4737-AC70-3591231E2765}" name="Month Eq (pre)" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{4AF80F60-D4BF-4B80-886D-FA3D7B97FF7F}" name="Month Eq (post)" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{E0E50CCA-870A-4D82-8F79-4423AD68F464}" name="Change Direction_x000a_(Month Eq)" dataDxfId="34">
       <calculatedColumnFormula>IF(Month_Table[Month Eq (pre)] &lt; Month_Table[Month Eq (post)], "Up", IF(Month_Table[Month Eq (pre)] &gt; Month_Table[Month Eq (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFA93A9C-7A33-4017-9B34-5194BEA2CFB3}" name="Month 80 (pre)" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{5A3D6698-1492-42F4-9406-1B2DCCDA7B98}" name="Month 80 (post)" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{E8B4CBBA-F989-4D44-94D1-F8F9ED5AF158}" name="Change Direction_x000a_(Month 80)" dataDxfId="49">
+    <tableColumn id="5" xr3:uid="{FFA93A9C-7A33-4017-9B34-5194BEA2CFB3}" name="Month 80 (pre)" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{5A3D6698-1492-42F4-9406-1B2DCCDA7B98}" name="Month 80 (post)" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{E8B4CBBA-F989-4D44-94D1-F8F9ED5AF158}" name="Change Direction_x000a_(Month 80)" dataDxfId="31">
       <calculatedColumnFormula>IF(Month_Table[Month 80 (pre)] &lt; Month_Table[Month 80 (post)], "Up", IF(Month_Table[Month 80 (pre)] &gt; Month_Table[Month 80 (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2472,21 +2472,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4467437-2A3E-4C21-932F-B15782EE29D5}" name="Author_Table" displayName="Author_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4467437-2A3E-4C21-932F-B15782EE29D5}" name="Author_Table" displayName="Author_Table" ref="A1:J121" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:J121" xr:uid="{758EA4D9-D01C-47C1-8B25-BCA71258E4C9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3C78A6AF-5CC9-4ADB-9588-0AB44E80D9A8}" name="Repository_x000a_Rank" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{4B49AFD1-A12F-42DE-BB7E-A6178382257F}" name="Repository Name" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{B300A10E-70C1-45BD-8E60-576CD7063D52}" name="Marker" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{340F8572-4B5B-4C67-998E-C6BA34D5D977}" name="Trend in Mean" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{6AF3FF3A-19A1-4933-AB01-B6FD782A613E}" name="Author Eq (pre)" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{61FF835F-6F49-4A51-BDF2-EC9C724D2A68}" name="Author Eq (post)" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{77DB3632-DB2F-4911-80F1-A8AE918EA32D}" name="Change Direction_x000a_(Author Eq)" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{3C78A6AF-5CC9-4ADB-9588-0AB44E80D9A8}" name="Repository_x000a_Rank" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{4B49AFD1-A12F-42DE-BB7E-A6178382257F}" name="Repository Name" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{B300A10E-70C1-45BD-8E60-576CD7063D52}" name="Marker" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{340F8572-4B5B-4C67-998E-C6BA34D5D977}" name="Trend in Mean" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6AF3FF3A-19A1-4933-AB01-B6FD782A613E}" name="Author Eq (pre)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{61FF835F-6F49-4A51-BDF2-EC9C724D2A68}" name="Author Eq (post)" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{77DB3632-DB2F-4911-80F1-A8AE918EA32D}" name="Change Direction_x000a_(Author Eq)" dataDxfId="7">
       <calculatedColumnFormula>IF(Author_Table[Author Eq (pre)] &lt; Author_Table[Author Eq (post)], "Up", IF(Author_Table[Author Eq (pre)] &gt; Author_Table[Author Eq (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CDD643B7-34BC-4233-9956-24BDF133784F}" name="Author 80 (pre)" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{9C4A93B6-3443-43B0-AAE9-C2D727D9CA1D}" name="Author 80 (post)" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{F494A487-038B-4CB8-B0E5-3BB23E4F4BEF}" name="Change Direction_x000a_(Author 80)" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{CDD643B7-34BC-4233-9956-24BDF133784F}" name="Author 80 (pre)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{9C4A93B6-3443-43B0-AAE9-C2D727D9CA1D}" name="Author 80 (post)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{F494A487-038B-4CB8-B0E5-3BB23E4F4BEF}" name="Change Direction_x000a_(Author 80)" dataDxfId="4">
       <calculatedColumnFormula>IF(Author_Table[Author 80 (pre)] &lt; Author_Table[Author 80 (post)], "Up", IF(Author_Table[Author 80 (pre)] &gt; Author_Table[Author 80 (post)], "Down", "No Change"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2495,11 +2495,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12F8B1DF-2997-4FD4-B471-3115399A6E5C}" name="Table5" displayName="Table5" ref="A1:B15" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12F8B1DF-2997-4FD4-B471-3115399A6E5C}" name="Table5" displayName="Table5" ref="A1:B15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B15" xr:uid="{050D82F8-536D-4A38-9753-067603486D57}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F35B6690-83E7-4B46-8E7A-5C10EB645A1D}" name="Term" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{3F25AE98-D399-455C-8C4A-9E1B669EB79E}" name="Description" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{F35B6690-83E7-4B46-8E7A-5C10EB645A1D}" name="Term" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3F25AE98-D399-455C-8C4A-9E1B669EB79E}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7297,68 +7297,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="17" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="18" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="13" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="14" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="12" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G121">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J121">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7374,9 +7374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719927CC-3BAA-4815-83BA-36FB67172E3C}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11506,46 +11504,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J121">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"No Change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Up"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Down"</formula>
     </cfRule>
   </conditionalFormatting>
